--- a/downloaded_files/GENS236_Lecture-35046.xlsx
+++ b/downloaded_files/GENS236_Lecture-35046.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Omar Ahmed Abass Nassef Mourad</x:t>
   </x:si>
   <x:si>
-    <x:t>4230168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد اشرف محمد مصلحى زمزم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ashraf</x:t>
-  </x:si>
-  <x:si>
     <x:t>1190529</x:t>
   </x:si>
   <x:si>
@@ -103,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210082</x:t>
@@ -236,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +518,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,7 +769,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +833,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.4929284722</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -868,70 +850,6 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45906.6645811343</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45906.4929284722</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS236_Lecture-35046.xlsx
+++ b/downloaded_files/GENS236_Lecture-35046.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,78 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم هشام ابراهيم احمد حامد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Hesham Ibrahim Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال محمد عبدالمقصود رمضان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belal mohamed abd elmaksod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد حازم احمد شفيق كامل حسن عبدالمنعم كامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hazem Ahmed Shafik Kamil Hasan Abdel-Monem Kamil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على الدين محمد احمد كمال على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALIELDIN MOHAMED AHMED KAMAL ALI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد عباس ناصف مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Abass Nassef Mourad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد احمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Khaled Ahmed Hessien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عبدالعاطى محمد عبدالعاطى عطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي محمود فاروق محمد الدامي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa mahmoud farouk mohamed eldamy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -179,35 +107,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -218,7 +132,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -518,17 +432,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="52.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -596,260 +510,11 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="3">
-        <x:v>45906.6682390394</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="2" t="s"/>
-      <x:c r="R2" s="2" t="s"/>
-      <x:c r="S2" s="2" t="s"/>
-      <x:c r="T2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:20">
-      <x:c r="A3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="3">
-        <x:v>45906.6643803588</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s"/>
-      <x:c r="L3" s="2" t="s"/>
-      <x:c r="M3" s="2" t="s"/>
-      <x:c r="N3" s="2" t="s"/>
-      <x:c r="O3" s="2" t="s"/>
-      <x:c r="P3" s="2" t="s"/>
-      <x:c r="Q3" s="2" t="s"/>
-      <x:c r="R3" s="2" t="s"/>
-      <x:c r="S3" s="2" t="s"/>
-      <x:c r="T3" s="2" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:20">
-      <x:c r="A4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="3">
-        <x:v>45907.4271650116</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s"/>
-      <x:c r="G4" s="2" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="2" t="s"/>
-      <x:c r="Q4" s="2" t="s"/>
-      <x:c r="R4" s="2" t="s"/>
-      <x:c r="S4" s="2" t="s"/>
-      <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45906.414803044</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45906.4155153125</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45906.6038499653</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45906.7421650463</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45906.4929284722</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
